--- a/data/trans_orig/P0801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>486025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>479253</v>
+        <v>478931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>490515</v>
+        <v>490422</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9837294548274458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9700227811918893</v>
+        <v>0.9693703756809131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9928172893408262</v>
+        <v>0.9926277894572531</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>478</v>
@@ -765,19 +765,19 @@
         <v>456039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>447816</v>
+        <v>447484</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>461570</v>
+        <v>461350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9755081186966915</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9579181482211113</v>
+        <v>0.9572070116429472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.987338230588743</v>
+        <v>0.9868675052622145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>969</v>
@@ -786,19 +786,19 @@
         <v>942065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>932534</v>
+        <v>931346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>949892</v>
+        <v>949527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9797323947322556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9698207312101786</v>
+        <v>0.9685849174170345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9878730376322772</v>
+        <v>0.9874934989136509</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2771</v>
+        <v>2877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13967</v>
+        <v>14508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01432021137684761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005607759858025447</v>
+        <v>0.005824028336351741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02826886117426435</v>
+        <v>0.02936361483886785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -836,19 +836,19 @@
         <v>7706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3288</v>
+        <v>3386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15746</v>
+        <v>16127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01648389028734367</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007032926832108526</v>
+        <v>0.007243190103333517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03368180291296308</v>
+        <v>0.03449744485800983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -857,19 +857,19 @@
         <v>14781</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8214</v>
+        <v>8633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24452</v>
+        <v>24135</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0153721516569192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008542032706965342</v>
+        <v>0.008977838107210532</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02543012673233285</v>
+        <v>0.02510009229176827</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5341</v>
+        <v>4870</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001950333795706578</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01080977227464392</v>
+        <v>0.009857887496854739</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>3744</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9352</v>
+        <v>8401</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008007991015964827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002038069222496434</v>
+        <v>0.002016285488823774</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02000458247639544</v>
+        <v>0.01797017238009988</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -928,7 +928,7 @@
         <v>4707</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>10393</v>
@@ -937,10 +937,10 @@
         <v>0.004895453610825163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001946447668576026</v>
+        <v>0.001934419356005536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.010808146077312</v>
+        <v>0.01080863904293984</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>712909</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>700006</v>
+        <v>702161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>720860</v>
+        <v>721316</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9692987975589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9517555131382058</v>
+        <v>0.9546859902343231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9801103135810733</v>
+        <v>0.9807303359546761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -1053,19 +1053,19 @@
         <v>594667</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581618</v>
+        <v>581548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>604715</v>
+        <v>604465</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9507157095353663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9298541988957479</v>
+        <v>0.9297414285274948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9667796566403331</v>
+        <v>0.9663794739842035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1245</v>
@@ -1074,19 +1074,19 @@
         <v>1307575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1291004</v>
+        <v>1291054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1319470</v>
+        <v>1321193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9607581974387679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9485828388170404</v>
+        <v>0.9486191586652146</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9694986236842372</v>
+        <v>0.9707641524644212</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>16209</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9444</v>
+        <v>9235</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26808</v>
+        <v>25948</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02203867298526246</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01284074834220303</v>
+        <v>0.01255666555967318</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03644879112903193</v>
+        <v>0.03527986283259485</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -1124,19 +1124,19 @@
         <v>27708</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18058</v>
+        <v>18718</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39449</v>
+        <v>39877</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04429716450497902</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0288692717011051</v>
+        <v>0.02992568006596644</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06306903523222072</v>
+        <v>0.06375320579457504</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>40</v>
@@ -1145,19 +1145,19 @@
         <v>43917</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32010</v>
+        <v>31888</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58297</v>
+        <v>58606</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03226845154017789</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02351990518945724</v>
+        <v>0.02343011296873839</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04283435106953692</v>
+        <v>0.04306146944429062</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>6371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2415</v>
+        <v>2872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13575</v>
+        <v>13544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008662529455837509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003283613365476006</v>
+        <v>0.003904314693970519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01845654612906018</v>
+        <v>0.01841541527584069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1195,19 +1195,19 @@
         <v>3119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8543</v>
+        <v>8157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004987125959654647</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.001494642136895016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01365786119659544</v>
+        <v>0.01304010024297755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1216,19 +1216,19 @@
         <v>9491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4420</v>
+        <v>4696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17416</v>
+        <v>18107</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006973351021054188</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003247322049715334</v>
+        <v>0.003450087630995043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01279680141854688</v>
+        <v>0.01330436345584418</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>612008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>601106</v>
+        <v>600067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>621133</v>
+        <v>620859</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9582566841785576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9411862343288644</v>
+        <v>0.9395600102945055</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9725447355783258</v>
+        <v>0.9721154352470969</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>605</v>
@@ -1341,19 +1341,19 @@
         <v>634509</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>619095</v>
+        <v>619042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>647224</v>
+        <v>647253</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9199195245921792</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8975728010683931</v>
+        <v>0.8974951148839302</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9383533824891266</v>
+        <v>0.938396314602378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1192</v>
@@ -1362,19 +1362,19 @@
         <v>1246517</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1228704</v>
+        <v>1227436</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1262567</v>
+        <v>1263104</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9383510835160346</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9249419517391171</v>
+        <v>0.9239871788506102</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9504331613228473</v>
+        <v>0.9508378661205702</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>20266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11383</v>
+        <v>12888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30173</v>
+        <v>30995</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0317321795193047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01782355848064673</v>
+        <v>0.02017936480987168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04724324264205982</v>
+        <v>0.04853035840038879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1412,19 +1412,19 @@
         <v>46621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34276</v>
+        <v>34952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60924</v>
+        <v>61404</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06759123825384424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04969377825008348</v>
+        <v>0.05067394573086823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08832847586974378</v>
+        <v>0.08902380095215025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -1433,19 +1433,19 @@
         <v>66887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51575</v>
+        <v>51082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83831</v>
+        <v>85837</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05035108897960081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03882421804552205</v>
+        <v>0.03845354510731139</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06310640610760174</v>
+        <v>0.06461599062555709</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>6394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2669</v>
+        <v>2732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12323</v>
+        <v>12096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01001113630213772</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004179247781887049</v>
+        <v>0.004277955591356778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01929423473586947</v>
+        <v>0.01893885253375161</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1483,19 +1483,19 @@
         <v>8614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3985</v>
+        <v>3671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17032</v>
+        <v>16108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01248923715397662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005777173995188793</v>
+        <v>0.005322149532012974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02469272510991031</v>
+        <v>0.02335335058531453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1504,19 +1504,19 @@
         <v>15008</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8742</v>
+        <v>8571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24297</v>
+        <v>23779</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01129782750436466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006580948197638477</v>
+        <v>0.006451923080968388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01829042217808703</v>
+        <v>0.01790022026563103</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>481553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>468871</v>
+        <v>469526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>492307</v>
+        <v>492037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.927585095176376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9031573175981013</v>
+        <v>0.904417758508382</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9482994109154655</v>
+        <v>0.9477793471970033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>423</v>
@@ -1629,19 +1629,19 @@
         <v>436531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>417770</v>
+        <v>420620</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>450944</v>
+        <v>454092</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8465783809148404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.810194704234236</v>
+        <v>0.8157218914411259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8745294573453386</v>
+        <v>0.880633613810872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>870</v>
@@ -1650,19 +1650,19 @@
         <v>918084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>897184</v>
+        <v>898280</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>937586</v>
+        <v>937364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8872189316181047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8670214107326756</v>
+        <v>0.8680799446225378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9060645892732914</v>
+        <v>0.9058500884502499</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>26882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18337</v>
+        <v>18194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38890</v>
+        <v>38841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05178045620612815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03532090566333361</v>
+        <v>0.03504666701776794</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07491186695577952</v>
+        <v>0.07481639282658743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1700,19 +1700,19 @@
         <v>60359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48503</v>
+        <v>46032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75467</v>
+        <v>75651</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.117055851442007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.094062659958372</v>
+        <v>0.08927120202353633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1463556585542309</v>
+        <v>0.1467122151914623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -1721,19 +1721,19 @@
         <v>87241</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69707</v>
+        <v>70297</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104578</v>
+        <v>103448</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08430760293022904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06736311184575715</v>
+        <v>0.06793381830386144</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1010624087996384</v>
+        <v>0.09997007535785624</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>10712</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5125</v>
+        <v>5827</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17946</v>
+        <v>18527</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02063444861749589</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009871813914433203</v>
+        <v>0.01122402457114373</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03456877159033105</v>
+        <v>0.0356870372883463</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1771,19 +1771,19 @@
         <v>18752</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11641</v>
+        <v>11511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29782</v>
+        <v>28934</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03636576764315261</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02257648882221644</v>
+        <v>0.02232411962493199</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.057756174690428</v>
+        <v>0.05611230498811592</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -1792,19 +1792,19 @@
         <v>29464</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20555</v>
+        <v>19634</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>42371</v>
+        <v>40377</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02847346545166623</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0198642156039131</v>
+        <v>0.01897424299009999</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04094657384706329</v>
+        <v>0.03902003061878436</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>307341</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>289104</v>
+        <v>291994</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>322394</v>
+        <v>323003</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7947585831012737</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7475982303174563</v>
+        <v>0.7550714254380809</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8336838305864814</v>
+        <v>0.835260129604282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>287</v>
@@ -1917,19 +1917,19 @@
         <v>292023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>272528</v>
+        <v>273872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>309238</v>
+        <v>309600</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7228554194390784</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6745969023565792</v>
+        <v>0.6779233134760572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7654679406260995</v>
+        <v>0.7663644001928969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -1938,19 +1938,19 @@
         <v>599365</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>577190</v>
+        <v>571317</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>624021</v>
+        <v>619493</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7580214939497292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7299776529405143</v>
+        <v>0.7225491787147781</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7892050351493667</v>
+        <v>0.7834775816072225</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>58849</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46360</v>
+        <v>44405</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73913</v>
+        <v>72273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1521785337866487</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1198825917267519</v>
+        <v>0.1148285534098576</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1911339026552746</v>
+        <v>0.1868917295586745</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>88</v>
@@ -1988,19 +1988,19 @@
         <v>90209</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>73570</v>
+        <v>73941</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>107484</v>
+        <v>107948</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.223296759869576</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1821109903779207</v>
+        <v>0.183029712163575</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2660578108275338</v>
+        <v>0.2672061231228121</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>150</v>
@@ -2009,19 +2009,19 @@
         <v>149058</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>125440</v>
+        <v>130156</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>169056</v>
+        <v>174945</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1885145790847761</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1586453184704598</v>
+        <v>0.1646098327285394</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2138062208687556</v>
+        <v>0.2212542272622458</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>20520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12865</v>
+        <v>12176</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30881</v>
+        <v>29984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05306288311207766</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03326773704595608</v>
+        <v>0.03148586616014958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0798549313302549</v>
+        <v>0.077537286425174</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2059,19 +2059,19 @@
         <v>21754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13772</v>
+        <v>13924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31765</v>
+        <v>32744</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05384782069134563</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0340891769942324</v>
+        <v>0.03446676416259326</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07862892462925328</v>
+        <v>0.0810524417769783</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -2080,19 +2080,19 @@
         <v>42274</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31336</v>
+        <v>31026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57803</v>
+        <v>57168</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05346392696549473</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03963097420240488</v>
+        <v>0.03923894520331127</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07310388049633507</v>
+        <v>0.07230051543156926</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>212993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>199230</v>
+        <v>198766</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>228368</v>
+        <v>227126</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7279756027110846</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6809365993326009</v>
+        <v>0.679348988352946</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7805241302964393</v>
+        <v>0.7762804382446515</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>174</v>
@@ -2205,19 +2205,19 @@
         <v>160537</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>143540</v>
+        <v>143241</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>177192</v>
+        <v>177470</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4681291324623454</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4185649815204652</v>
+        <v>0.4176930628918943</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5166930358899524</v>
+        <v>0.5175060991275712</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>392</v>
@@ -2226,19 +2226,19 @@
         <v>373531</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>348076</v>
+        <v>350219</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>398524</v>
+        <v>398322</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5877587567732023</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5477053865971336</v>
+        <v>0.5510777180455249</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6270865354355765</v>
+        <v>0.6267686591736364</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>58796</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46204</v>
+        <v>46341</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71865</v>
+        <v>72619</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2009562889792315</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1579184938291099</v>
+        <v>0.1583848716160874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2456233556382652</v>
+        <v>0.2481996148406858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>151</v>
@@ -2276,19 +2276,19 @@
         <v>139407</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>123033</v>
+        <v>122087</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156974</v>
+        <v>156379</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4065119732590243</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3587660177351224</v>
+        <v>0.3560058934427909</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4577389847454418</v>
+        <v>0.4560034620149808</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>214</v>
@@ -2297,19 +2297,19 @@
         <v>198203</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>176553</v>
+        <v>174873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>222242</v>
+        <v>221624</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3118770557178574</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2778098794545802</v>
+        <v>0.2751662893225943</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3497027198944432</v>
+        <v>0.3487295306575954</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>20793</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14362</v>
+        <v>13857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32097</v>
+        <v>30319</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07106810830968388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04908826693871514</v>
+        <v>0.04736156447331472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1097011090170318</v>
+        <v>0.1036265541614679</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2347,19 +2347,19 @@
         <v>42990</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31524</v>
+        <v>32858</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54801</v>
+        <v>57207</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1253588942786302</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09192556295127323</v>
+        <v>0.09581417048430388</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1597997863298378</v>
+        <v>0.166817556733002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>68</v>
@@ -2368,19 +2368,19 @@
         <v>63783</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>49488</v>
+        <v>49634</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>78956</v>
+        <v>79083</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1003641875089403</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07787010837965455</v>
+        <v>0.07809943324953317</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1242390036124686</v>
+        <v>0.1244381100736935</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>97951</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>84088</v>
+        <v>84106</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>113537</v>
+        <v>112244</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4666920629617347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4006415768221361</v>
+        <v>0.4007274909842358</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5409514825095616</v>
+        <v>0.5347935025189757</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -2493,19 +2493,19 @@
         <v>80874</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>64206</v>
+        <v>63908</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>98533</v>
+        <v>97911</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2422052668684278</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1922877135485855</v>
+        <v>0.1913947396490677</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2950888301396984</v>
+        <v>0.2932274995139994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>172</v>
@@ -2514,19 +2514,19 @@
         <v>178825</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>157555</v>
+        <v>157363</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>204179</v>
+        <v>201754</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3288487821628556</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2897347380860861</v>
+        <v>0.2893806271342436</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3754726859804822</v>
+        <v>0.371013007017931</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>76124</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62029</v>
+        <v>62640</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90422</v>
+        <v>89682</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3626950264284773</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2955399176140903</v>
+        <v>0.2984503652136503</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4308187348302733</v>
+        <v>0.4272968154545385</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>147</v>
@@ -2564,19 +2564,19 @@
         <v>168963</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>151526</v>
+        <v>150024</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>189817</v>
+        <v>188045</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5060165960291252</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4537948704833119</v>
+        <v>0.4492959252928163</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5684703040573633</v>
+        <v>0.5631655780671024</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>227</v>
@@ -2585,19 +2585,19 @@
         <v>245087</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>221556</v>
+        <v>221939</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>270583</v>
+        <v>268231</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4506998254046574</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4074292813100787</v>
+        <v>0.4081329020971993</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.497586601296028</v>
+        <v>0.493261035382436</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>35809</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26641</v>
+        <v>26978</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>47518</v>
+        <v>47391</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1706129106097879</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1269312627140923</v>
+        <v>0.1285363174212929</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2264036524893408</v>
+        <v>0.2257971938832348</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -2635,19 +2635,19 @@
         <v>84071</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>68086</v>
+        <v>67915</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>101457</v>
+        <v>101358</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2517781371024471</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2039070628196147</v>
+        <v>0.2033938885168421</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3038470145447819</v>
+        <v>0.3035505138346555</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>111</v>
@@ -2656,19 +2656,19 @@
         <v>119879</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>101684</v>
+        <v>100173</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>140840</v>
+        <v>139775</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.220451392432487</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1869909695313473</v>
+        <v>0.1842119827406937</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.25899683024756</v>
+        <v>0.2570388920574789</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2910779</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2874722</v>
+        <v>2874806</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2945215</v>
+        <v>2944301</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8883689154948771</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8773644324784667</v>
+        <v>0.8773898927355674</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8988786903449318</v>
+        <v>0.8985998644568961</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2599</v>
@@ -2781,19 +2781,19 @@
         <v>2655182</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2606762</v>
+        <v>2601501</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2702427</v>
+        <v>2694574</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7857434150350527</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7714147014534226</v>
+        <v>0.7698577426417625</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7997246561623249</v>
+        <v>0.7974007060451586</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5437</v>
@@ -2802,19 +2802,19 @@
         <v>5565962</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5504742</v>
+        <v>5505489</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5625054</v>
+        <v>5622299</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.836264749448382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8270667490912892</v>
+        <v>0.8271789359680009</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8451431960327884</v>
+        <v>0.8447292232217345</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>264201</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>233278</v>
+        <v>234654</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>296076</v>
+        <v>297168</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08063411624040026</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07119635473172016</v>
+        <v>0.07161639177083202</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09036224986122021</v>
+        <v>0.0906954717991971</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>524</v>
@@ -2852,19 +2852,19 @@
         <v>540972</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>500331</v>
+        <v>503448</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>584882</v>
+        <v>586365</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1600888393457106</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1480620625993608</v>
+        <v>0.1489845420807673</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1730830014556906</v>
+        <v>0.1735219103565266</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>796</v>
@@ -2873,19 +2873,19 @@
         <v>805173</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>753546</v>
+        <v>754921</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>859169</v>
+        <v>858012</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1209742078093381</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1132174502968542</v>
+        <v>0.1134239903447484</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1290868388467217</v>
+        <v>0.1289130058156721</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>101563</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>84898</v>
+        <v>84817</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>123432</v>
+        <v>122123</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03099696826472264</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02591098870819802</v>
+        <v>0.02588606590268139</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03767141782360228</v>
+        <v>0.03727192344294759</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>174</v>
@@ -2923,19 +2923,19 @@
         <v>183043</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>157766</v>
+        <v>158503</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>211016</v>
+        <v>211904</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05416774561923661</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04668756143846371</v>
+        <v>0.04690552047702047</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06244559834458655</v>
+        <v>0.06270844801077681</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>278</v>
@@ -2944,19 +2944,19 @@
         <v>284606</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>252232</v>
+        <v>254625</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>318279</v>
+        <v>316794</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04276104274227994</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0378968361067046</v>
+        <v>0.03825644571088829</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04782020588411287</v>
+        <v>0.04759713991341154</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>446284</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>439288</v>
+        <v>439585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>450575</v>
+        <v>450698</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9826880504923947</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9672841017125988</v>
+        <v>0.9679380299771922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9921376071051207</v>
+        <v>0.9924071870069917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>407</v>
@@ -3312,19 +3312,19 @@
         <v>415539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>405811</v>
+        <v>405479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>421723</v>
+        <v>421860</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9658527086729275</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9432430079218775</v>
+        <v>0.9424704938936821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9802273524569741</v>
+        <v>0.9805451136630257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>845</v>
@@ -3333,19 +3333,19 @@
         <v>861823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>850681</v>
+        <v>849929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>869472</v>
+        <v>870238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9744980202675326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9618998882734995</v>
+        <v>0.9610497338082077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9831475820364829</v>
+        <v>0.9840139115480392</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>6994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2911</v>
+        <v>2838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13343</v>
+        <v>13604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01540096721425081</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006408882163440588</v>
+        <v>0.006249937942809562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02938030896541531</v>
+        <v>0.0299552219934919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3383,19 +3383,19 @@
         <v>9785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4261</v>
+        <v>4825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18576</v>
+        <v>18424</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02274335181956537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009904825374643772</v>
+        <v>0.01121528135831878</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04317634218353703</v>
+        <v>0.04282384040695626</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3404,19 +3404,19 @@
         <v>16779</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9559</v>
+        <v>9712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26819</v>
+        <v>27594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01897287876109883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01080847337284242</v>
+        <v>0.01098192057948785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03032564652910171</v>
+        <v>0.0312011951657506</v>
       </c>
     </row>
     <row r="6">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4385</v>
+        <v>5225</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001910982293354487</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009656034899884178</v>
+        <v>0.0115048841247871</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3454,19 +3454,19 @@
         <v>4906</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1880</v>
+        <v>1869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10779</v>
+        <v>11472</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0114039395075071</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004370073749449243</v>
+        <v>0.004343796903958767</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02505423730454796</v>
+        <v>0.02666474027732438</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3475,19 +3475,19 @@
         <v>5774</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1891</v>
+        <v>1930</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11765</v>
+        <v>12479</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006529100971368526</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002138786644539351</v>
+        <v>0.002182497239581619</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01330262781991836</v>
+        <v>0.01411101875783712</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>663132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>650869</v>
+        <v>650930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>671080</v>
+        <v>671427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9651361218094245</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9472871699696532</v>
+        <v>0.9473760086806255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.97670335181074</v>
+        <v>0.9772084007802581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>545</v>
@@ -3600,19 +3600,19 @@
         <v>581817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>569801</v>
+        <v>569418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>591615</v>
+        <v>591519</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9533994084551884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9337102190876369</v>
+        <v>0.9330821985269495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9694561980308737</v>
+        <v>0.9692982885986097</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1189</v>
@@ -3621,19 +3621,19 @@
         <v>1244949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1228919</v>
+        <v>1227343</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1257300</v>
+        <v>1257498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9596153028360784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9472591283733472</v>
+        <v>0.9460446511726683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9691350969117676</v>
+        <v>0.9692880423505259</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>18338</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11024</v>
+        <v>11412</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29530</v>
+        <v>28494</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02668999396032121</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01604490048793343</v>
+        <v>0.01660945856987145</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04297883714656202</v>
+        <v>0.04147002934721435</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -3671,19 +3671,19 @@
         <v>27396</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17903</v>
+        <v>17738</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38993</v>
+        <v>39979</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04489338145000264</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02933637355452321</v>
+        <v>0.02906605690190323</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06389664734141047</v>
+        <v>0.06551145072183881</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>43</v>
@@ -3692,19 +3692,19 @@
         <v>45735</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33560</v>
+        <v>34010</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>59091</v>
+        <v>61673</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03525266427516987</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02586845558986144</v>
+        <v>0.02621531580325956</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04554766118766886</v>
+        <v>0.04753765138646461</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>5616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1855</v>
+        <v>1842</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12984</v>
+        <v>13125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008173884230254254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002699623726359039</v>
+        <v>0.002680810012283476</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01889674103288166</v>
+        <v>0.01910289854625746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5257</v>
+        <v>5205</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001707210094808867</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008615062918261071</v>
+        <v>0.008529904142745109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3763,19 +3763,19 @@
         <v>6658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2712</v>
+        <v>2825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15070</v>
+        <v>15152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005132032888751723</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002090641943782714</v>
+        <v>0.002177891803665763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01161639381340519</v>
+        <v>0.01167951050596654</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>639903</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>625033</v>
+        <v>624963</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>650973</v>
+        <v>651165</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9384624818588614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9166543727293037</v>
+        <v>0.9165527943989593</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9546982729170516</v>
+        <v>0.9549794980692855</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>594</v>
@@ -3888,19 +3888,19 @@
         <v>631179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>610182</v>
+        <v>612001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>645153</v>
+        <v>647013</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8879211825258366</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8583835590741485</v>
+        <v>0.8609424509705562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9075789812162992</v>
+        <v>0.9101959492209781</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1205</v>
@@ -3909,19 +3909,19 @@
         <v>1271081</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1249412</v>
+        <v>1244468</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1290098</v>
+        <v>1291754</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9126658655386184</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8971069221250462</v>
+        <v>0.8935570115748223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9263206657492412</v>
+        <v>0.9275099993102718</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>30071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20820</v>
+        <v>20510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41617</v>
+        <v>42430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04410081621252225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03053452792950378</v>
+        <v>0.03007952681650378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06103414966108275</v>
+        <v>0.06222643727767285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -3959,19 +3959,19 @@
         <v>61993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49515</v>
+        <v>47276</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78617</v>
+        <v>80020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08720911529210935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06965664618736846</v>
+        <v>0.06650600992051797</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1105957527098063</v>
+        <v>0.1125693498511433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -3980,19 +3980,19 @@
         <v>92063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74241</v>
+        <v>74823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110027</v>
+        <v>114795</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06610357962085743</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05330644222439478</v>
+        <v>0.05372464984125432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0790020088721564</v>
+        <v>0.08242531398912865</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>11889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5796</v>
+        <v>6141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20495</v>
+        <v>21807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01743670192861633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008500430450348437</v>
+        <v>0.009006257054825091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03005665575994211</v>
+        <v>0.03198172047192398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -4030,19 +4030,19 @@
         <v>17679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10794</v>
+        <v>10334</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28274</v>
+        <v>29220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02486970218205396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0151845379211287</v>
+        <v>0.01453767671395385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03977451138923109</v>
+        <v>0.04110627943310934</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -4051,19 +4051,19 @@
         <v>29568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19473</v>
+        <v>19590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42476</v>
+        <v>43076</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02123055484052412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01398240970402674</v>
+        <v>0.01406638052353796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03049866317621844</v>
+        <v>0.0309293004362268</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>547484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>528128</v>
+        <v>531606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>561755</v>
+        <v>562442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8907729031732934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8592797329517978</v>
+        <v>0.8649386046249616</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9139915763137989</v>
+        <v>0.9151095758523653</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>447</v>
@@ -4176,19 +4176,19 @@
         <v>513612</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>493822</v>
+        <v>492952</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>531896</v>
+        <v>532001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8335171353594428</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8014000457141001</v>
+        <v>0.7999878739680408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8631885486313781</v>
+        <v>0.8633585009153842</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>934</v>
@@ -4197,19 +4197,19 @@
         <v>1061097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1033266</v>
+        <v>1034014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1084983</v>
+        <v>1084992</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8621082133021796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8394970466593485</v>
+        <v>0.8401042905655295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8815149936442467</v>
+        <v>0.8815227080817759</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>52948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39488</v>
+        <v>39122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69377</v>
+        <v>69245</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08614725049235898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0642473544435562</v>
+        <v>0.06365248729854137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1128790944820708</v>
+        <v>0.1126634960443713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -4247,19 +4247,19 @@
         <v>79424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63954</v>
+        <v>63336</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>99101</v>
+        <v>99483</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1288935214886925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.103787551462025</v>
+        <v>0.1027846987338222</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1608264160558579</v>
+        <v>0.1614454335300481</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -4268,19 +4268,19 @@
         <v>132372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110973</v>
+        <v>111200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>156931</v>
+        <v>157419</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1075478647543178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09016244883387384</v>
+        <v>0.09034661466077001</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1275017219054447</v>
+        <v>0.1278979762771374</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>14185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8090</v>
+        <v>8032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23463</v>
+        <v>22482</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02307984633434761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01316257127608944</v>
+        <v>0.01306823589279996</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03817452267845437</v>
+        <v>0.03657959924397045</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -4318,19 +4318,19 @@
         <v>23163</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14670</v>
+        <v>14595</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34156</v>
+        <v>35593</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03758934315186466</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.023807270853754</v>
+        <v>0.02368511220400822</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05542956490129668</v>
+        <v>0.05776140976874444</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -4339,19 +4339,19 @@
         <v>37348</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26372</v>
+        <v>27302</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51996</v>
+        <v>52017</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03034392194350272</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0214267799849888</v>
+        <v>0.02218180558138657</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04224545921195284</v>
+        <v>0.04226258547729901</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>345261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>328625</v>
+        <v>327301</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>362969</v>
+        <v>361213</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8040009073113988</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7652595549357846</v>
+        <v>0.7621763524999016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8452367354106993</v>
+        <v>0.8411471918024155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -4464,19 +4464,19 @@
         <v>280212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257804</v>
+        <v>259295</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301577</v>
+        <v>300248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6257515746617947</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5757129246974158</v>
+        <v>0.5790411307501917</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6734633690549696</v>
+        <v>0.6704953651415421</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>570</v>
@@ -4485,19 +4485,19 @@
         <v>625473</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>597128</v>
+        <v>595515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>652240</v>
+        <v>651540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7130098016750182</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6806982679055507</v>
+        <v>0.6788593574518458</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7435230454454493</v>
+        <v>0.7427246666886556</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>57185</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42409</v>
+        <v>44174</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72207</v>
+        <v>74027</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1331640752374942</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09875786717892192</v>
+        <v>0.1028671528285687</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1681466302560337</v>
+        <v>0.1723850871553908</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>109</v>
@@ -4535,19 +4535,19 @@
         <v>120444</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>100291</v>
+        <v>100244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>140616</v>
+        <v>139839</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2689681165948998</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2239627506697552</v>
+        <v>0.2238586138164309</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3140156129015665</v>
+        <v>0.3122795285207604</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>162</v>
@@ -4556,19 +4556,19 @@
         <v>177628</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>153341</v>
+        <v>153572</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>202179</v>
+        <v>202219</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2024880928330605</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1748013430251955</v>
+        <v>0.1750643434512519</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.230474760162455</v>
+        <v>0.2305205173645877</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>26983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17292</v>
+        <v>18027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38381</v>
+        <v>38804</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06283501745110694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0402676637011934</v>
+        <v>0.0419782447433119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08937691595484061</v>
+        <v>0.09036166671368917</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -4606,19 +4606,19 @@
         <v>47145</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33692</v>
+        <v>33794</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62038</v>
+        <v>61607</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1052803087433056</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07523975136902407</v>
+        <v>0.07546763775712179</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1385398586440725</v>
+        <v>0.1375767010168625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -4627,19 +4627,19 @@
         <v>74128</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57041</v>
+        <v>59614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91459</v>
+        <v>93224</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08450210549192139</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06502449345026465</v>
+        <v>0.06795718619015231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1042594582802156</v>
+        <v>0.1062711016855711</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>202220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>184531</v>
+        <v>184310</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>219702</v>
+        <v>219554</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6527724687307913</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5956737601382746</v>
+        <v>0.5949578810347609</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7092042170024592</v>
+        <v>0.7087288194019599</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>153</v>
@@ -4752,19 +4752,19 @@
         <v>160294</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>141150</v>
+        <v>141805</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>178174</v>
+        <v>181207</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4528126801557984</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3987340155173382</v>
+        <v>0.4005849398892901</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5033231142811877</v>
+        <v>0.5118898170058013</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>341</v>
@@ -4773,19 +4773,19 @@
         <v>362514</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>337784</v>
+        <v>334923</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>390824</v>
+        <v>389653</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5461336236344501</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5088778977912912</v>
+        <v>0.5045684764894022</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5887833409613361</v>
+        <v>0.5870195129061385</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>71943</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56198</v>
+        <v>57322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88672</v>
+        <v>89228</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2322351238876354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1814075814843156</v>
+        <v>0.185036788765644</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2862370258970978</v>
+        <v>0.288030762502532</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>124</v>
@@ -4823,19 +4823,19 @@
         <v>125641</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108251</v>
+        <v>108587</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144413</v>
+        <v>146734</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3549209502557508</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3057967774525631</v>
+        <v>0.3067468715794569</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4079504506135533</v>
+        <v>0.4145080380689417</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>186</v>
@@ -4844,19 +4844,19 @@
         <v>197584</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172780</v>
+        <v>172510</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>220616</v>
+        <v>221946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2976636529275098</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2602959507769629</v>
+        <v>0.2598896400396026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3323624461434052</v>
+        <v>0.3343658503595737</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>35623</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24803</v>
+        <v>24420</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49563</v>
+        <v>48470</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1149924073815733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08006577738936888</v>
+        <v>0.07882884880431723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1599896243678853</v>
+        <v>0.1564622983094424</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -4894,19 +4894,19 @@
         <v>68062</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54465</v>
+        <v>53000</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>84189</v>
+        <v>83587</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1922663695884509</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.153858036814503</v>
+        <v>0.149718707212322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.237823417393312</v>
+        <v>0.2361247448273218</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -4915,19 +4915,19 @@
         <v>103685</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>84730</v>
+        <v>85226</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>121923</v>
+        <v>124711</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1562027234380401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1276479089816558</v>
+        <v>0.128395216822474</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1836797509584445</v>
+        <v>0.1878794951248858</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>81107</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>65403</v>
+        <v>66019</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>96063</v>
+        <v>98341</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3246197087011615</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2617683865877353</v>
+        <v>0.2642352760241287</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3844809729268638</v>
+        <v>0.3935984047928598</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -5040,19 +5040,19 @@
         <v>74255</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59378</v>
+        <v>58836</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>90915</v>
+        <v>91287</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1908963479307052</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1526510214170779</v>
+        <v>0.1512579058260611</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2337267628038179</v>
+        <v>0.2346842010544188</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>140</v>
@@ -5061,19 +5061,19 @@
         <v>155361</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>134014</v>
+        <v>133971</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>179229</v>
+        <v>178973</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2431964960175371</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2097800045624815</v>
+        <v>0.2097123852110266</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2805577209379977</v>
+        <v>0.2801579844752058</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>97157</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>79789</v>
+        <v>81494</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112237</v>
+        <v>113345</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3888592910993768</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3193465967743359</v>
+        <v>0.326171701527173</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4492138648659761</v>
+        <v>0.4536490888762014</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>140</v>
@@ -5111,19 +5111,19 @@
         <v>155246</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>136411</v>
+        <v>133787</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>174655</v>
+        <v>175160</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.399112319380232</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3506889259906242</v>
+        <v>0.3439452566967978</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4490084845261725</v>
+        <v>0.4503082743651499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>228</v>
@@ -5132,19 +5132,19 @@
         <v>252403</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>227040</v>
+        <v>227871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>277514</v>
+        <v>279163</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3951022878170283</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3553999390758581</v>
+        <v>0.3567004239347574</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4344101486131141</v>
+        <v>0.4369903261938101</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>71588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>57031</v>
+        <v>57170</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>89052</v>
+        <v>88822</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2865210001994618</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2282588598694542</v>
+        <v>0.2288164353351408</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3564214687918436</v>
+        <v>0.3555013689100817</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>143</v>
@@ -5182,19 +5182,19 @@
         <v>159478</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140183</v>
+        <v>140356</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>182085</v>
+        <v>181038</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4099913326890628</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3603878996611796</v>
+        <v>0.360831201887819</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.468108849161142</v>
+        <v>0.4654177622474305</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>204</v>
@@ -5203,19 +5203,19 @@
         <v>231066</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>203731</v>
+        <v>204804</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>255840</v>
+        <v>257227</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3617012161654347</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3189122191595548</v>
+        <v>0.3205924939879939</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4004825490107102</v>
+        <v>0.4026530597015858</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>2925391</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2875622</v>
+        <v>2880974</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2961907</v>
+        <v>2969553</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8536853451536438</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8391617588697323</v>
+        <v>0.8407237243171444</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.864341308183491</v>
+        <v>0.8665726521716935</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2468</v>
@@ -5328,19 +5328,19 @@
         <v>2656907</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2600204</v>
+        <v>2603222</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2706642</v>
+        <v>2711443</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7466768334462321</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7307414377319567</v>
+        <v>0.7315897250462442</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7606540928696857</v>
+        <v>0.7620032929978496</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5224</v>
@@ -5349,19 +5349,19 @@
         <v>5582298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5511497</v>
+        <v>5512638</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5650630</v>
+        <v>5648595</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7991735963321085</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7890375531383174</v>
+        <v>0.7892009659761893</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8089561859758347</v>
+        <v>0.8086648335717308</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>334635</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>300515</v>
+        <v>298155</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>372361</v>
+        <v>371854</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09765306863186174</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08769615342306336</v>
+        <v>0.08700726803819678</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1086621693484305</v>
+        <v>0.1085141538437821</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>535</v>
@@ -5399,19 +5399,19 @@
         <v>579929</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>533854</v>
+        <v>533667</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>628748</v>
+        <v>623666</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1629787501124609</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1500303723023245</v>
+        <v>0.1499777310556957</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1766984625079499</v>
+        <v>0.1752703141930769</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>839</v>
@@ -5420,19 +5420,19 @@
         <v>914564</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>860899</v>
+        <v>857485</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>973239</v>
+        <v>970630</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1309309554433592</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1232480988225979</v>
+        <v>0.1227593573537259</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.139330939094668</v>
+        <v>0.1389574840275274</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>166753</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>139947</v>
+        <v>142523</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>198258</v>
+        <v>193927</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0486615862144944</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04083911670260252</v>
+        <v>0.0415908763282142</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05785562600929285</v>
+        <v>0.05659151130552153</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>295</v>
@@ -5470,19 +5470,19 @@
         <v>321473</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>289905</v>
+        <v>289126</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>360268</v>
+        <v>359955</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09034441644130692</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08147277915992338</v>
+        <v>0.08125378539852207</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1012468537626035</v>
+        <v>0.1011589464040911</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>444</v>
@@ -5491,19 +5491,19 @@
         <v>488226</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>443609</v>
+        <v>445023</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>529265</v>
+        <v>536552</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06989544822453232</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06350803336578636</v>
+        <v>0.06371046314701703</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0757707224691089</v>
+        <v>0.07681398712476412</v>
       </c>
     </row>
     <row r="35">
@@ -5838,7 +5838,7 @@
         <v>417091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>410572</v>
+        <v>411421</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>419463</v>
@@ -5847,7 +5847,7 @@
         <v>0.9943452955539039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9788035211395141</v>
+        <v>0.9808289119232403</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -5859,19 +5859,19 @@
         <v>383501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>375038</v>
+        <v>375867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>389209</v>
+        <v>389144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9690373070775923</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9476519183296612</v>
+        <v>0.9497460106918408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9834597579187608</v>
+        <v>0.9832944495734482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>782</v>
@@ -5880,19 +5880,19 @@
         <v>800592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>791665</v>
+        <v>791255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>807177</v>
+        <v>806604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9820593020695692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9711078421398944</v>
+        <v>0.9706057539711856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9901359623091551</v>
+        <v>0.9894329320358289</v>
       </c>
     </row>
     <row r="5">
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8891</v>
+        <v>8042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005654704446096111</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02119647886048583</v>
+        <v>0.01917108807675967</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -5930,19 +5930,19 @@
         <v>11228</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5680</v>
+        <v>6303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18830</v>
+        <v>18964</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02837083163647333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01435212898646838</v>
+        <v>0.01592664516803554</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04757877170270837</v>
+        <v>0.04791804718019461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -5951,19 +5951,19 @@
         <v>13600</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7306</v>
+        <v>8016</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22025</v>
+        <v>22934</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01668245526523071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008962191432572344</v>
+        <v>0.00983327608011512</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02701774906835052</v>
+        <v>0.02813199673895858</v>
       </c>
     </row>
     <row r="6">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5138</v>
+        <v>5159</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002591861285934384</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01298165121851497</v>
+        <v>0.01303462273410346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5133</v>
+        <v>5157</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001258242665200165</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006297067914938682</v>
+        <v>0.006325312056710481</v>
       </c>
     </row>
     <row r="7">
@@ -6118,19 +6118,19 @@
         <v>570308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>559881</v>
+        <v>559558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>578085</v>
+        <v>577662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9658119283903409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9481533762927813</v>
+        <v>0.9476069525333103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9789826042329007</v>
+        <v>0.9782650147102889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>554</v>
@@ -6139,19 +6139,19 @@
         <v>538224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>526971</v>
+        <v>527714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>547099</v>
+        <v>546529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9550699410519276</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9351010158912274</v>
+        <v>0.9364197352159842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9708183969482098</v>
+        <v>0.9698071806435488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1103</v>
@@ -6160,19 +6160,19 @@
         <v>1108532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1092137</v>
+        <v>1090608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1119512</v>
+        <v>1120048</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9605663741636923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9463600024024927</v>
+        <v>0.9450346775162699</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9700803813763014</v>
+        <v>0.970545245020752</v>
       </c>
     </row>
     <row r="9">
@@ -6189,19 +6189,19 @@
         <v>14270</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7855</v>
+        <v>7816</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24732</v>
+        <v>24540</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02416641092866523</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01330217503939187</v>
+        <v>0.01323590144365375</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04188346065431726</v>
+        <v>0.04155810386863559</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -6210,19 +6210,19 @@
         <v>15859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9351</v>
+        <v>9443</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24098</v>
+        <v>24297</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02814224911509555</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01659337861973143</v>
+        <v>0.01675613556527662</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04276199283270281</v>
+        <v>0.04311542685002599</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -6231,19 +6231,19 @@
         <v>30130</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20892</v>
+        <v>20112</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43998</v>
+        <v>44768</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02610790221386917</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01810362535836298</v>
+        <v>0.01742729302339146</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03812561848359421</v>
+        <v>0.03879222451163217</v>
       </c>
     </row>
     <row r="10">
@@ -6260,19 +6260,19 @@
         <v>5918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12102</v>
+        <v>12269</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01002166068099391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003384020087094893</v>
+        <v>0.003406379722351205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02049509738349738</v>
+        <v>0.0207776378843627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6281,19 +6281,19 @@
         <v>9461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4247</v>
+        <v>4698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17101</v>
+        <v>17829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01678780983297688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00753689479536491</v>
+        <v>0.008336871932728905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03034577115582493</v>
+        <v>0.03163658487379465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -6302,19 +6302,19 @@
         <v>15378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8788</v>
+        <v>8987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25979</v>
+        <v>24968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01332572362243858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007615019328417435</v>
+        <v>0.007787305970461615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02251176706937523</v>
+        <v>0.02163497828917373</v>
       </c>
     </row>
     <row r="11">
@@ -6406,19 +6406,19 @@
         <v>634301</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>622601</v>
+        <v>620433</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>645038</v>
+        <v>643699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9479954157911089</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.930508853186838</v>
+        <v>0.9272692510161137</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9640430126962191</v>
+        <v>0.962041141717767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>617</v>
@@ -6427,19 +6427,19 @@
         <v>611917</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>596755</v>
+        <v>597532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>623050</v>
+        <v>623864</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9252041094983341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9022796233841381</v>
+        <v>0.903453804087214</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9420375530697439</v>
+        <v>0.9432669097561057</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1222</v>
@@ -6448,19 +6448,19 @@
         <v>1246218</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1226741</v>
+        <v>1228042</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1262969</v>
+        <v>1263753</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9366658027008997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9220267584900084</v>
+        <v>0.9230048564938022</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9492563503587935</v>
+        <v>0.9498451839244768</v>
       </c>
     </row>
     <row r="13">
@@ -6477,19 +6477,19 @@
         <v>27751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17266</v>
+        <v>18643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38396</v>
+        <v>40402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04147592715001497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02580488196871375</v>
+        <v>0.0278626255556941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05738434763143153</v>
+        <v>0.06038224872981878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -6498,19 +6498,19 @@
         <v>40490</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30758</v>
+        <v>29949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55582</v>
+        <v>53034</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06122034589108863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04650518050758166</v>
+        <v>0.04528264236114158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08403809992084262</v>
+        <v>0.08018558857608865</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -6519,19 +6519,19 @@
         <v>68242</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53584</v>
+        <v>53837</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85602</v>
+        <v>85076</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05129092512134027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04027404339798042</v>
+        <v>0.04046426350315905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06433884412933798</v>
+        <v>0.06394377043049958</v>
       </c>
     </row>
     <row r="14">
@@ -6548,19 +6548,19 @@
         <v>7045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3004</v>
+        <v>2915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14332</v>
+        <v>13352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01052865705887617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004489814399941294</v>
+        <v>0.004357246060113806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02141993525815867</v>
+        <v>0.01995516855639295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -6569,19 +6569,19 @@
         <v>8979</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4443</v>
+        <v>4545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16633</v>
+        <v>16877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0135755446105773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006717570973600194</v>
+        <v>0.00687143815880154</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02514921101343823</v>
+        <v>0.02551701039472753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -6590,19 +6590,19 @@
         <v>16023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9602</v>
+        <v>8926</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25073</v>
+        <v>24176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01204327217775998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007216621122683154</v>
+        <v>0.006708842391219912</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01884517888280304</v>
+        <v>0.0181711751687663</v>
       </c>
     </row>
     <row r="15">
@@ -6694,19 +6694,19 @@
         <v>570644</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>552946</v>
+        <v>551277</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>587055</v>
+        <v>585607</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8832847143007013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.855890144610558</v>
+        <v>0.85330671406123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9086860026880448</v>
+        <v>0.9064455892303687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>508</v>
@@ -6715,19 +6715,19 @@
         <v>547639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>527792</v>
+        <v>528212</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>564874</v>
+        <v>565533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8437197006656436</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8131421027322239</v>
+        <v>0.8137898824077756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8702720211634999</v>
+        <v>0.8712877465561334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1022</v>
@@ -6736,19 +6736,19 @@
         <v>1118283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1090900</v>
+        <v>1090420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1143833</v>
+        <v>1141839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8634559462365033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8423123051999007</v>
+        <v>0.8419417799816019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8831831765398893</v>
+        <v>0.8816438960191784</v>
       </c>
     </row>
     <row r="17">
@@ -6765,19 +6765,19 @@
         <v>47885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35380</v>
+        <v>34780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64299</v>
+        <v>63650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07411937776980444</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05476419760506303</v>
+        <v>0.05383521192641901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09952724067435179</v>
+        <v>0.09852151521876994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -6786,19 +6786,19 @@
         <v>61917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47496</v>
+        <v>47951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79018</v>
+        <v>77898</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0953927131398442</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07317438932118206</v>
+        <v>0.07387531472020506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1217394105164186</v>
+        <v>0.1200136673115813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -6807,19 +6807,19 @@
         <v>109802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>90262</v>
+        <v>91994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131561</v>
+        <v>133608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08478091922396053</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06969393840674934</v>
+        <v>0.07103121398177181</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.101582004463707</v>
+        <v>0.103162373908094</v>
       </c>
     </row>
     <row r="18">
@@ -6836,19 +6836,19 @@
         <v>27519</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17307</v>
+        <v>19270</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39289</v>
+        <v>40444</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04259590792949426</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02678938699579222</v>
+        <v>0.02982769632659185</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06081509760510563</v>
+        <v>0.06260271561377521</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -6857,19 +6857,19 @@
         <v>39521</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28340</v>
+        <v>28299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54362</v>
+        <v>53405</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06088758619451218</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04366274112553434</v>
+        <v>0.04359812448696606</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08375228034991333</v>
+        <v>0.08227887096984887</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -6878,19 +6878,19 @@
         <v>67040</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51160</v>
+        <v>52068</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84169</v>
+        <v>85900</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05176313453953617</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03950204405698964</v>
+        <v>0.04020275207762108</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06498903294014192</v>
+        <v>0.06632570578073099</v>
       </c>
     </row>
     <row r="19">
@@ -6982,19 +6982,19 @@
         <v>386754</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>367275</v>
+        <v>368491</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>403740</v>
+        <v>405487</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8092483784646014</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7684904281007526</v>
+        <v>0.7710329199270951</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8447887613085148</v>
+        <v>0.8484448121786228</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>294</v>
@@ -7003,19 +7003,19 @@
         <v>339748</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316575</v>
+        <v>313933</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>360698</v>
+        <v>360224</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6838049008840109</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6371651550817525</v>
+        <v>0.6318481564418263</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.725970835773694</v>
+        <v>0.7250175765384964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -7024,19 +7024,19 @@
         <v>726502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>694847</v>
+        <v>696453</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>752903</v>
+        <v>754043</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7453085173742583</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7128336961412498</v>
+        <v>0.7144819376806411</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7723930509896954</v>
+        <v>0.7735620766686695</v>
       </c>
     </row>
     <row r="21">
@@ -7053,19 +7053,19 @@
         <v>66816</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53239</v>
+        <v>52686</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>84955</v>
+        <v>83468</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1398055576653724</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1113972440023664</v>
+        <v>0.1102400185039206</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1777616044703711</v>
+        <v>0.1746482203735731</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>91</v>
@@ -7074,19 +7074,19 @@
         <v>100899</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>84396</v>
+        <v>83077</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121540</v>
+        <v>121353</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2030772334123131</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1698620310359289</v>
+        <v>0.1672077905868594</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.244622026370506</v>
+        <v>0.2442450226836484</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>149</v>
@@ -7095,19 +7095,19 @@
         <v>167714</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>145843</v>
+        <v>143218</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>193441</v>
+        <v>192994</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1720557968666377</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1496186035409152</v>
+        <v>0.1469249961162014</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1984479405224433</v>
+        <v>0.1979895195506753</v>
       </c>
     </row>
     <row r="22">
@@ -7124,19 +7124,19 @@
         <v>24348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14014</v>
+        <v>15581</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36308</v>
+        <v>36185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05094606387002625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02932289905577281</v>
+        <v>0.03260155333235223</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07597179398466647</v>
+        <v>0.0757143052556777</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -7145,19 +7145,19 @@
         <v>56202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41553</v>
+        <v>43223</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73635</v>
+        <v>74181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.113117865703676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0836336876801913</v>
+        <v>0.08699335823485525</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1482045764833085</v>
+        <v>0.1493024940113032</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -7166,19 +7166,19 @@
         <v>80551</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64261</v>
+        <v>62986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99636</v>
+        <v>103779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08263568575910391</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06592471559832154</v>
+        <v>0.06461617538432493</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.102215443809586</v>
+        <v>0.1064653519765058</v>
       </c>
     </row>
     <row r="23">
@@ -7270,19 +7270,19 @@
         <v>231472</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>212931</v>
+        <v>212872</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>247167</v>
+        <v>246868</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6923465335089973</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6368900275490135</v>
+        <v>0.6367123177860502</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7392917990332605</v>
+        <v>0.7383965977321093</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>187</v>
@@ -7291,19 +7291,19 @@
         <v>201347</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>180673</v>
+        <v>180973</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>221269</v>
+        <v>220676</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5330003620500122</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4782726670957393</v>
+        <v>0.4790666570893042</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5857368453516836</v>
+        <v>0.5841662088729753</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>411</v>
@@ -7312,19 +7312,19 @@
         <v>432819</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>404086</v>
+        <v>406792</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>458143</v>
+        <v>456594</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6078140170672587</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5674625111125611</v>
+        <v>0.5712628456541232</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6433763984615226</v>
+        <v>0.6412002273120974</v>
       </c>
     </row>
     <row r="25">
@@ -7341,19 +7341,19 @@
         <v>70723</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57325</v>
+        <v>57105</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86429</v>
+        <v>87454</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2115362062882473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1714623238254169</v>
+        <v>0.1708038429019987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2585128737368106</v>
+        <v>0.261578505818193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -7362,19 +7362,19 @@
         <v>122392</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>103232</v>
+        <v>104405</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>142629</v>
+        <v>142325</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.323992998852947</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2732731116756854</v>
+        <v>0.2763786791232372</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3775635996018137</v>
+        <v>0.3767572559754012</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>184</v>
@@ -7383,19 +7383,19 @@
         <v>193115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>170812</v>
+        <v>169699</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>217079</v>
+        <v>217854</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2711940918804815</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2398732527990016</v>
+        <v>0.2383102599453303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3048462112720045</v>
+        <v>0.3059349038343607</v>
       </c>
     </row>
     <row r="26">
@@ -7412,19 +7412,19 @@
         <v>32135</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22387</v>
+        <v>22829</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43615</v>
+        <v>43739</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09611726020275535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06695949924344224</v>
+        <v>0.06828282141732935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1304554381222646</v>
+        <v>0.1308254155509076</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -7433,19 +7433,19 @@
         <v>54022</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42607</v>
+        <v>41341</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68912</v>
+        <v>67939</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1430066390970408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1127885044976329</v>
+        <v>0.109437837609487</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1824226672874315</v>
+        <v>0.1798459319107421</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -7454,19 +7454,19 @@
         <v>86157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>68467</v>
+        <v>70889</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>103611</v>
+        <v>105514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1209918910522598</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09614908698366599</v>
+        <v>0.09955030509519845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1455027092348591</v>
+        <v>0.1481742552903203</v>
       </c>
     </row>
     <row r="27">
@@ -7558,19 +7558,19 @@
         <v>113352</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100065</v>
+        <v>98820</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>129928</v>
+        <v>128812</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4410621352821378</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3893592395160796</v>
+        <v>0.3845164681769155</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5055606258168068</v>
+        <v>0.5012173420146497</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -7579,19 +7579,19 @@
         <v>120155</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101803</v>
+        <v>101086</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>141494</v>
+        <v>141584</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3002604740249368</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.254400400448428</v>
+        <v>0.2526086633246808</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3535857331987001</v>
+        <v>0.3538100375930986</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>224</v>
@@ -7600,19 +7600,19 @@
         <v>233507</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>210175</v>
+        <v>206585</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>258866</v>
+        <v>259675</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3553237158834612</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3198190818212753</v>
+        <v>0.3143573039256563</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.39391169653934</v>
+        <v>0.395143078999928</v>
       </c>
     </row>
     <row r="29">
@@ -7629,19 +7629,19 @@
         <v>94335</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>80726</v>
+        <v>80999</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108075</v>
+        <v>108754</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3670639579813409</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3141121931724722</v>
+        <v>0.3151740732409204</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4205278634362679</v>
+        <v>0.4231711245510647</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>113</v>
@@ -7650,19 +7650,19 @@
         <v>149840</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>128917</v>
+        <v>128280</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>171860</v>
+        <v>171796</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3744418351380158</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3221566632026921</v>
+        <v>0.3205642969842553</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4294694980643622</v>
+        <v>0.4293091936055543</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>223</v>
@@ -7671,19 +7671,19 @@
         <v>244175</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>220658</v>
+        <v>221357</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>271938</v>
+        <v>270654</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.371556572061905</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.335772285246535</v>
+        <v>0.3368349294231585</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4138039554647187</v>
+        <v>0.4118490034340257</v>
       </c>
     </row>
     <row r="30">
@@ -7700,19 +7700,19 @@
         <v>49311</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38399</v>
+        <v>38491</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>61124</v>
+        <v>61971</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1918739067365212</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1494153683734238</v>
+        <v>0.149770397435714</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2378372777101558</v>
+        <v>0.2411349442333502</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>98</v>
@@ -7721,19 +7721,19 @@
         <v>130174</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>110125</v>
+        <v>109875</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152736</v>
+        <v>152775</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3252976908370473</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2751964803457681</v>
+        <v>0.2745716423941436</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3816787074098532</v>
+        <v>0.3817760921682016</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>156</v>
@@ -7742,19 +7742,19 @@
         <v>179485</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>156404</v>
+        <v>154232</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>205828</v>
+        <v>203502</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2731197120546339</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2379973076064101</v>
+        <v>0.2346923142144702</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3132056092545804</v>
+        <v>0.3096659092191461</v>
       </c>
     </row>
     <row r="31">
@@ -7846,19 +7846,19 @@
         <v>2923923</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2881449</v>
+        <v>2882279</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2960260</v>
+        <v>2964968</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8614088224474096</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8488957117821931</v>
+        <v>0.8491401314221548</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8721139316969239</v>
+        <v>0.8735009014708032</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2641</v>
@@ -7867,19 +7867,19 @@
         <v>2742531</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2690789</v>
+        <v>2688068</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2789633</v>
+        <v>2796283</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7737336398953086</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7591359368620306</v>
+        <v>0.7583683574289157</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.787022255908826</v>
+        <v>0.7888983675666138</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5404</v>
@@ -7888,19 +7888,19 @@
         <v>5666454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5595993</v>
+        <v>5603454</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5736385</v>
+        <v>5735959</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8166223707340134</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8064677812794516</v>
+        <v>0.8075429938781596</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8267004710901559</v>
+        <v>0.826638991550334</v>
       </c>
     </row>
     <row r="33">
@@ -7917,19 +7917,19 @@
         <v>324151</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>292112</v>
+        <v>292444</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>361475</v>
+        <v>358853</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09549733647288013</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08605840104205169</v>
+        <v>0.08615605279553136</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1064931537803179</v>
+        <v>0.1057206718693499</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>444</v>
@@ -7938,19 +7938,19 @@
         <v>502626</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>462711</v>
+        <v>461018</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>549005</v>
+        <v>547674</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.141802741936243</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1305416902830919</v>
+        <v>0.1300642994868698</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1548874124135569</v>
+        <v>0.1545120308350406</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>763</v>
@@ -7959,19 +7959,19 @@
         <v>826777</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>769895</v>
+        <v>770709</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>887151</v>
+        <v>878519</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1191511772233313</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1109536514264551</v>
+        <v>0.1110708648108429</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1278520132473278</v>
+        <v>0.126607893727523</v>
       </c>
     </row>
     <row r="34">
@@ -7988,19 +7988,19 @@
         <v>146276</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>124405</v>
+        <v>123680</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>169781</v>
+        <v>169828</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04309384107971034</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03665063259676628</v>
+        <v>0.03643694202985968</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05001882619923256</v>
+        <v>0.05003257262477606</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>253</v>
@@ -8009,19 +8009,19 @@
         <v>299385</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>264394</v>
+        <v>264103</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>337303</v>
+        <v>339180</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08446361816844832</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07459193099603544</v>
+        <v>0.07450982181971946</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09516124163478687</v>
+        <v>0.09569080527141885</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>402</v>
@@ -8030,19 +8030,19 @@
         <v>445660</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>405465</v>
+        <v>406723</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>488172</v>
+        <v>486356</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06422645204265523</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05843369448740129</v>
+        <v>0.05861491883040373</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07035308773017297</v>
+        <v>0.07009130105702302</v>
       </c>
     </row>
     <row r="35">
@@ -8377,19 +8377,19 @@
         <v>401049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>387933</v>
+        <v>387857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>406272</v>
+        <v>406302</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.983463052702063</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9512987286060899</v>
+        <v>0.9511123551319931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9962690964234214</v>
+        <v>0.9963436380379833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -8398,19 +8398,19 @@
         <v>356932</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>346148</v>
+        <v>346029</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>361208</v>
+        <v>361187</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9846071517696091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9548605709512548</v>
+        <v>0.9545321687716782</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9964024885469999</v>
+        <v>0.9963439469418562</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -8419,19 +8419,19 @@
         <v>757981</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>741535</v>
+        <v>744892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>765337</v>
+        <v>765788</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9840014752649118</v>
+        <v>0.9840014752649116</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9626505621480426</v>
+        <v>0.9670097247955952</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9935501057502438</v>
+        <v>0.9941366090388479</v>
       </c>
     </row>
     <row r="5">
@@ -8448,19 +8448,19 @@
         <v>6744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1521</v>
+        <v>1491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19860</v>
+        <v>19936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01653694729793707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003730903576578526</v>
+        <v>0.003656361962016744</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04870127139391026</v>
+        <v>0.04888764486800676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5481</v>
+        <v>7435</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0036520542048593</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01511894700724937</v>
+        <v>0.02051051799874588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -8490,19 +8490,19 @@
         <v>8068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1855</v>
+        <v>1921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21735</v>
+        <v>23489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01047320914973069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002408400845421318</v>
+        <v>0.002494312618484385</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02821574061577416</v>
+        <v>0.03049352220884629</v>
       </c>
     </row>
     <row r="6">
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14427</v>
+        <v>14366</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01174079402553156</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03979754955067989</v>
+        <v>0.03962824873970137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -8556,16 +8556,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14795</v>
+        <v>13509</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005525315585357619</v>
+        <v>0.005525315585357618</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01920689769186198</v>
+        <v>0.01753763926830767</v>
       </c>
     </row>
     <row r="7">
@@ -8657,19 +8657,19 @@
         <v>452660</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435749</v>
+        <v>436012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>462840</v>
+        <v>463060</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9491918365523797</v>
+        <v>0.9491918365523796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9137296655448167</v>
+        <v>0.9142810846620743</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9705379804555094</v>
+        <v>0.9710001874170324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -8678,19 +8678,19 @@
         <v>495172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487942</v>
+        <v>488855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498826</v>
+        <v>498782</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9869225751795534</v>
+        <v>0.9869225751795535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9725127572888788</v>
+        <v>0.9743335315652651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942070716830439</v>
+        <v>0.994117442640168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>741</v>
@@ -8699,19 +8699,19 @@
         <v>947832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>931553</v>
+        <v>930525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>959698</v>
+        <v>959325</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9685361032923411</v>
+        <v>0.9685361032923412</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.951901777695773</v>
+        <v>0.9508509101064585</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9806615188238785</v>
+        <v>0.9802802168507911</v>
       </c>
     </row>
     <row r="9">
@@ -8728,19 +8728,19 @@
         <v>17390</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8798</v>
+        <v>8176</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34206</v>
+        <v>33173</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03646607052051751</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01844796332896561</v>
+        <v>0.01714503487063705</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07172667408010405</v>
+        <v>0.06956088053866272</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -8749,19 +8749,19 @@
         <v>5614</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2103</v>
+        <v>2250</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12551</v>
+        <v>11579</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01119019467083907</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004191069631476572</v>
+        <v>0.004484500891005679</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02501556906712713</v>
+        <v>0.02307761888910606</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -8770,19 +8770,19 @@
         <v>23005</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12594</v>
+        <v>12704</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40820</v>
+        <v>39660</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02350731852380489</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01286906000985582</v>
+        <v>0.01298110973512321</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04171116294727121</v>
+        <v>0.04052667215088341</v>
       </c>
     </row>
     <row r="10">
@@ -8799,19 +8799,19 @@
         <v>6840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2593</v>
+        <v>2401</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15535</v>
+        <v>15051</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01434209292710284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005437144595927658</v>
+        <v>0.0050350338786165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03257525329354815</v>
+        <v>0.03156080433197595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4807</v>
+        <v>4751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001887230149607334</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009581599795659345</v>
+        <v>0.009470140447031527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -8841,19 +8841,19 @@
         <v>7786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2960</v>
+        <v>2684</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16546</v>
+        <v>16239</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.007956578183853896</v>
+        <v>0.007956578183853898</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003024375619020156</v>
+        <v>0.002742533542460322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01690748467479868</v>
+        <v>0.01659328923526154</v>
       </c>
     </row>
     <row r="11">
@@ -8945,19 +8945,19 @@
         <v>589864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>576930</v>
+        <v>576382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>599754</v>
+        <v>599516</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9501103570315717</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.929278513202289</v>
+        <v>0.9283953293978604</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9660408567943509</v>
+        <v>0.9656581552608369</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>781</v>
@@ -8966,19 +8966,19 @@
         <v>573405</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>560777</v>
+        <v>561165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>583581</v>
+        <v>583974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9210500396163832</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9007663387814023</v>
+        <v>0.9013887744016436</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9373950875932699</v>
+        <v>0.938026562726228</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1300</v>
@@ -8987,19 +8987,19 @@
         <v>1163269</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1144938</v>
+        <v>1146737</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1178093</v>
+        <v>1178328</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9355601040140945</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9208171807121833</v>
+        <v>0.9222646001002837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9474827484630635</v>
+        <v>0.9476716792418908</v>
       </c>
     </row>
     <row r="13">
@@ -9016,19 +9016,19 @@
         <v>27163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18433</v>
+        <v>18249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40703</v>
+        <v>40323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04375239271811867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02969068172859532</v>
+        <v>0.02939462393352076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06556159640800854</v>
+        <v>0.06495011335211846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -9037,19 +9037,19 @@
         <v>37335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28296</v>
+        <v>28051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47541</v>
+        <v>48296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05996978217893216</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0454520591504027</v>
+        <v>0.04505775739577696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07636496829407738</v>
+        <v>0.07757628915554116</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -9058,19 +9058,19 @@
         <v>64498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51180</v>
+        <v>51496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81167</v>
+        <v>80442</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05187230127130179</v>
+        <v>0.0518723012713018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0411612183193821</v>
+        <v>0.04141602999222676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06527881776701186</v>
+        <v>0.06469588923339792</v>
       </c>
     </row>
     <row r="14">
@@ -9087,19 +9087,19 @@
         <v>3810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10014</v>
+        <v>9968</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006137250250309721</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0</v>
+        <v>0.001821484782857786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01612944072860218</v>
+        <v>0.01605640293994802</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -9108,19 +9108,19 @@
         <v>11816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6703</v>
+        <v>7239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18953</v>
+        <v>19029</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01898017820468461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01076714262210078</v>
+        <v>0.0116273152323854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03044445886937005</v>
+        <v>0.0305651484485086</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -9129,19 +9129,19 @@
         <v>15626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9619</v>
+        <v>8864</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24030</v>
+        <v>23594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01256759471460381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007736040548910643</v>
+        <v>0.007129224151366266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01932594258369346</v>
+        <v>0.01897584726597001</v>
       </c>
     </row>
     <row r="15">
@@ -9233,19 +9233,19 @@
         <v>618835</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>599442</v>
+        <v>599010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>635858</v>
+        <v>636276</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8832711191025066</v>
+        <v>0.8832711191025063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8555914023802077</v>
+        <v>0.8549746893179097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9075687037955317</v>
+        <v>0.9081655418490371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>986</v>
@@ -9254,19 +9254,19 @@
         <v>635016</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>619426</v>
+        <v>621177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>648743</v>
+        <v>649441</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8617556280474524</v>
+        <v>0.8617556280474523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8405996864655867</v>
+        <v>0.8429750766749685</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.880384882804535</v>
+        <v>0.8813314355031957</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1581</v>
@@ -9275,19 +9275,19 @@
         <v>1253851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1226853</v>
+        <v>1227842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1274962</v>
+        <v>1275868</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8722419481600433</v>
+        <v>0.8722419481600434</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8534602676967445</v>
+        <v>0.8541489212008497</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8869274165418091</v>
+        <v>0.8875582217264061</v>
       </c>
     </row>
     <row r="17">
@@ -9304,19 +9304,19 @@
         <v>52253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38547</v>
+        <v>38847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67779</v>
+        <v>67810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07458200551535302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0550182516770457</v>
+        <v>0.05544614778378457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0967421666347066</v>
+        <v>0.09678593433044637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -9325,19 +9325,19 @@
         <v>78311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65801</v>
+        <v>65775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92235</v>
+        <v>90749</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1062731896886688</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08929667158687013</v>
+        <v>0.08926117255388193</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1251689281466517</v>
+        <v>0.1231518029998593</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>166</v>
@@ -9346,19 +9346,19 @@
         <v>130565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112077</v>
+        <v>112433</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>151626</v>
+        <v>152446</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09082739293050436</v>
+        <v>0.09082739293050437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07796613712861689</v>
+        <v>0.07821391213456813</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1054787801742163</v>
+        <v>0.1060492838552266</v>
       </c>
     </row>
     <row r="18">
@@ -9375,19 +9375,19 @@
         <v>29529</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19747</v>
+        <v>19125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45685</v>
+        <v>44835</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04214687538214069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02818526912701221</v>
+        <v>0.02729767718616448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06520727634626095</v>
+        <v>0.06399391094467659</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -9396,19 +9396,19 @@
         <v>23559</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16297</v>
+        <v>16609</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32131</v>
+        <v>31701</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0319711822638788</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02211630709241648</v>
+        <v>0.02253912523751464</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04360356330681227</v>
+        <v>0.04302069203232509</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -9417,19 +9417,19 @@
         <v>53088</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40648</v>
+        <v>39323</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>69314</v>
+        <v>69368</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03693065890945221</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02827688743245731</v>
+        <v>0.02735472600086886</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04821812406177545</v>
+        <v>0.04825597075235338</v>
       </c>
     </row>
     <row r="19">
@@ -9521,19 +9521,19 @@
         <v>489665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>469284</v>
+        <v>468674</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>507406</v>
+        <v>507923</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8035914929103088</v>
+        <v>0.803591492910309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7701444847341158</v>
+        <v>0.7691420628318798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8327050890492536</v>
+        <v>0.8335536742640461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>760</v>
@@ -9542,19 +9542,19 @@
         <v>455576</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>437799</v>
+        <v>436600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>471271</v>
+        <v>471735</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7482499302898654</v>
+        <v>0.7482499302898656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7190536992442161</v>
+        <v>0.7170835906867564</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7740281274403086</v>
+        <v>0.7747908113958784</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1297</v>
@@ -9563,19 +9563,19 @@
         <v>945242</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>918004</v>
+        <v>921299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>969118</v>
+        <v>971972</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7759318653810897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7535727949385042</v>
+        <v>0.7562777308860364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7955310717737163</v>
+        <v>0.7978746260055742</v>
       </c>
     </row>
     <row r="21">
@@ -9592,19 +9592,19 @@
         <v>88511</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>73871</v>
+        <v>72375</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106142</v>
+        <v>106633</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1452559947494663</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1212292604081926</v>
+        <v>0.1187745028240523</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1741896693057479</v>
+        <v>0.1749958041744954</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>176</v>
@@ -9613,19 +9613,19 @@
         <v>110352</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>96448</v>
+        <v>96279</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>125907</v>
+        <v>126258</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1812449198322324</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1584085404406219</v>
+        <v>0.1581315133305276</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2067924637093673</v>
+        <v>0.2073700735320415</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>269</v>
@@ -9634,19 +9634,19 @@
         <v>198863</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>177168</v>
+        <v>176027</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>222250</v>
+        <v>221624</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1632432039252073</v>
+        <v>0.1632432039252074</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1454343931213736</v>
+        <v>0.1444971488187052</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1824413043031742</v>
+        <v>0.1819273349535033</v>
       </c>
     </row>
     <row r="22">
@@ -9663,19 +9663,19 @@
         <v>31170</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21896</v>
+        <v>21934</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44252</v>
+        <v>43908</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05115251234022473</v>
+        <v>0.05115251234022472</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03593363864063331</v>
+        <v>0.03599533352136227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07262143952707716</v>
+        <v>0.07205765356919562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -9684,19 +9684,19 @@
         <v>42927</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34089</v>
+        <v>33894</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54429</v>
+        <v>52998</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07050514987790207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0559889952070366</v>
+        <v>0.0556680356254613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08939614692467225</v>
+        <v>0.08704454104796819</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -9705,19 +9705,19 @@
         <v>74097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60909</v>
+        <v>60188</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90662</v>
+        <v>88821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06082493069370296</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04999899244137496</v>
+        <v>0.04940686168007329</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07442308932088207</v>
+        <v>0.07291114594670833</v>
       </c>
     </row>
     <row r="23">
@@ -9809,19 +9809,19 @@
         <v>314832</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>299491</v>
+        <v>299734</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>327514</v>
+        <v>328175</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7733905990360291</v>
+        <v>0.7733905990360292</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.735706068396932</v>
+        <v>0.7363022847130922</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8045446804396288</v>
+        <v>0.8061685270889188</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>512</v>
@@ -9830,19 +9830,19 @@
         <v>266724</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>251743</v>
+        <v>252456</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>282237</v>
+        <v>282488</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6073412258516413</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.573229628552129</v>
+        <v>0.5748542398521227</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6426650938764252</v>
+        <v>0.6432370567675212</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>954</v>
@@ -9851,19 +9851,19 @@
         <v>581555</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>559822</v>
+        <v>560627</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>601824</v>
+        <v>602019</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6872179289878687</v>
+        <v>0.6872179289878688</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6615356613940281</v>
+        <v>0.6624868497573961</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7111692328313064</v>
+        <v>0.711399915601629</v>
       </c>
     </row>
     <row r="25">
@@ -9880,19 +9880,19 @@
         <v>64223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53758</v>
+        <v>52952</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77661</v>
+        <v>77565</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1577642226882108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1320581673576338</v>
+        <v>0.1300772544232691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.190775780907709</v>
+        <v>0.190539659736996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>239</v>
@@ -9901,19 +9901,19 @@
         <v>129877</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115946</v>
+        <v>116357</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>143595</v>
+        <v>144155</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2957350921189848</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2640145072069598</v>
+        <v>0.2649497303221122</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3269728167413217</v>
+        <v>0.3282470434448976</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>328</v>
@@ -9922,19 +9922,19 @@
         <v>194099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>175484</v>
+        <v>174976</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>213760</v>
+        <v>213420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2293653252982975</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2073680624066286</v>
+        <v>0.2067669331851818</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2525982714903626</v>
+        <v>0.2521959758023039</v>
       </c>
     </row>
     <row r="26">
@@ -9951,19 +9951,19 @@
         <v>28025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20512</v>
+        <v>20683</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37641</v>
+        <v>38269</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06884517827575991</v>
+        <v>0.06884517827575989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05038836927204802</v>
+        <v>0.05080853855971874</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09246505519333052</v>
+        <v>0.09400868118282492</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -9972,19 +9972,19 @@
         <v>42566</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33710</v>
+        <v>34630</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52781</v>
+        <v>52352</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09692368202937383</v>
+        <v>0.09692368202937382</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07675897635512803</v>
+        <v>0.07885413119061044</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1201857372001099</v>
+        <v>0.1192084769940243</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>115</v>
@@ -9993,19 +9993,19 @@
         <v>70591</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59489</v>
+        <v>58781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85151</v>
+        <v>83959</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.08341674571383381</v>
+        <v>0.08341674571383383</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07029721313782283</v>
+        <v>0.06946036736009271</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1006214523738312</v>
+        <v>0.09921304969346216</v>
       </c>
     </row>
     <row r="27">
@@ -10097,19 +10097,19 @@
         <v>155367</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>140945</v>
+        <v>140775</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>170961</v>
+        <v>170944</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5008648281374891</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4543717175537074</v>
+        <v>0.4538216924039654</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5511342358421006</v>
+        <v>0.5510795393492878</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>232</v>
@@ -10118,19 +10118,19 @@
         <v>121244</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106714</v>
+        <v>108736</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>133500</v>
+        <v>136777</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2609590775267271</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2296854721785954</v>
+        <v>0.2340367777194049</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2873394302945185</v>
+        <v>0.2943910072911815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>468</v>
@@ -10139,19 +10139,19 @@
         <v>276611</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>257291</v>
+        <v>256816</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>298705</v>
+        <v>299722</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3570066595517224</v>
+        <v>0.3570066595517223</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3320715656947248</v>
+        <v>0.3314582117856249</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3855212674254678</v>
+        <v>0.3868339955979065</v>
       </c>
     </row>
     <row r="29">
@@ -10168,19 +10168,19 @@
         <v>99041</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>86156</v>
+        <v>84988</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>114840</v>
+        <v>113924</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3192846064513354</v>
+        <v>0.3192846064513353</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2777459069471107</v>
+        <v>0.2739799710517534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3702145961517766</v>
+        <v>0.367262083107428</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>331</v>
@@ -10189,19 +10189,19 @@
         <v>169935</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>155093</v>
+        <v>154602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>185088</v>
+        <v>184194</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3657594962821252</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3338149455896799</v>
+        <v>0.3327569176455037</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3983743608464577</v>
+        <v>0.3964489317273162</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>465</v>
@@ -10210,19 +10210,19 @@
         <v>268977</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>248971</v>
+        <v>247763</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>289721</v>
+        <v>288749</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3471530194396099</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3213332421057187</v>
+        <v>0.3197733192903748</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3739265575759091</v>
+        <v>0.3726719835522909</v>
       </c>
     </row>
     <row r="30">
@@ -10239,19 +10239,19 @@
         <v>55789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44718</v>
+        <v>45469</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66524</v>
+        <v>68093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1798505654111753</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1441609637160967</v>
+        <v>0.1465811184142216</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.214457945716465</v>
+        <v>0.2195150264934937</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>318</v>
@@ -10260,19 +10260,19 @@
         <v>173430</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>159449</v>
+        <v>157788</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>190551</v>
+        <v>189266</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3732814261911476</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3431902786205684</v>
+        <v>0.3396150324453709</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.410130935920884</v>
+        <v>0.4073665492808938</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>406</v>
@@ -10281,19 +10281,19 @@
         <v>229219</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>210474</v>
+        <v>209677</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>249719</v>
+        <v>247755</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2958403210086677</v>
+        <v>0.2958403210086676</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2716476033607463</v>
+        <v>0.2706177546504708</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3222983747838924</v>
+        <v>0.3197641125013006</v>
       </c>
     </row>
     <row r="31">
@@ -10385,19 +10385,19 @@
         <v>3022273</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2977282</v>
+        <v>2977286</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3061179</v>
+        <v>3060311</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.855498622829217</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8427633504586944</v>
+        <v>0.8427643359194065</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8665115739601107</v>
+        <v>0.8662657401616076</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3929</v>
@@ -10406,19 +10406,19 @@
         <v>2904068</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2865473</v>
+        <v>2867739</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2946274</v>
+        <v>2948314</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7772540999245229</v>
+        <v>0.7772540999245228</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7669243348587902</v>
+        <v>0.7675308027164239</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7885500595277626</v>
+        <v>0.7890960865210666</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6714</v>
@@ -10427,19 +10427,19 @@
         <v>5926342</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5864817</v>
+        <v>5868317</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5983778</v>
+        <v>5986585</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8152808209782832</v>
+        <v>0.8152808209782834</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8068169465756951</v>
+        <v>0.8072984025194573</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8231822960447619</v>
+        <v>0.8235684228344871</v>
       </c>
     </row>
     <row r="33">
@@ -10456,19 +10456,19 @@
         <v>355326</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>318813</v>
+        <v>320776</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>393137</v>
+        <v>392845</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1005801948479711</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09024459556790236</v>
+        <v>0.09080030750952212</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1112832276719139</v>
+        <v>0.1112004608866784</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>922</v>
@@ -10477,19 +10477,19 @@
         <v>532748</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>501253</v>
+        <v>497138</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>566313</v>
+        <v>567406</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1425864069906987</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1341569339013242</v>
+        <v>0.1330555175360851</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1515697910160821</v>
+        <v>0.1518622429805283</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1322</v>
@@ -10498,19 +10498,19 @@
         <v>888074</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>841034</v>
+        <v>834226</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>942734</v>
+        <v>939665</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1221714507435726</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1157001803200206</v>
+        <v>0.1147635984286264</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1296910224265437</v>
+        <v>0.129268799235011</v>
       </c>
     </row>
     <row r="34">
@@ -10527,19 +10527,19 @@
         <v>155163</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>134443</v>
+        <v>130996</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>178882</v>
+        <v>179643</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04392118232281208</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03805596321064705</v>
+        <v>0.03708032029826021</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05063520173134484</v>
+        <v>0.05085046609771904</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>515</v>
@@ -10548,19 +10548,19 @@
         <v>299501</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>272916</v>
+        <v>274660</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>325738</v>
+        <v>324856</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08015949308477829</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07304409253200336</v>
+        <v>0.07351094589285337</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08718162152560641</v>
+        <v>0.08694547505615617</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>706</v>
@@ -10569,19 +10569,19 @@
         <v>454664</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>419530</v>
+        <v>419659</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>491703</v>
+        <v>492639</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06254772827814412</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05771435936956303</v>
+        <v>0.05773208132932815</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06764314568040411</v>
+        <v>0.0677718458982393</v>
       </c>
     </row>
     <row r="35">
